--- a/4.8/4.8.xlsx
+++ b/4.8/4.8.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivc6-10\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivc6-10\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -41,12 +41,6 @@
     <t>Продавец</t>
   </si>
   <si>
-    <t>Деньги (1)</t>
-  </si>
-  <si>
-    <t>Комиссионные (2)</t>
-  </si>
-  <si>
     <t>Общая сумма (3)</t>
   </si>
   <si>
@@ -54,14 +48,29 @@
   </si>
   <si>
     <t>Всего (5)</t>
+  </si>
+  <si>
+    <t>Деньги (x = 0)</t>
+  </si>
+  <si>
+    <t>Комиссионные (x = 1)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -122,7 +131,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -134,6 +143,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -419,7 +431,7 @@
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,8 +442,8 @@
     <col min="5" max="5" width="3.5703125" customWidth="1"/>
     <col min="9" max="9" width="16.85546875" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" customWidth="1"/>
-    <col min="13" max="13" width="19.42578125" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" customWidth="1"/>
+    <col min="13" max="13" width="21.5703125" customWidth="1"/>
     <col min="14" max="14" width="18.28515625" customWidth="1"/>
     <col min="15" max="15" width="29.28515625" customWidth="1"/>
     <col min="16" max="16" width="10.85546875" customWidth="1"/>
@@ -465,20 +477,20 @@
       <c r="K1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -617,5 +629,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/4.8/4.8.xlsx
+++ b/4.8/4.8.xlsx
@@ -41,19 +41,19 @@
     <t>Продавец</t>
   </si>
   <si>
-    <t>Общая сумма (3)</t>
-  </si>
-  <si>
-    <t>Общие комиссионные (4)</t>
-  </si>
-  <si>
-    <t>Всего (5)</t>
-  </si>
-  <si>
     <t>Деньги (x = 0)</t>
   </si>
   <si>
     <t>Комиссионные (x = 1)</t>
+  </si>
+  <si>
+    <t>Общая сумма (0-1)</t>
+  </si>
+  <si>
+    <t>Общие комиссионные (1)</t>
+  </si>
+  <si>
+    <t>Всего (0+1)</t>
   </si>
 </sst>
 </file>
@@ -431,7 +431,7 @@
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,19 +478,19 @@
         <v>4</v>
       </c>
       <c r="L1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="P1" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
